--- a/biology/Botanique/Jardin_botanique_national_de_Kirstenbosch/Jardin_botanique_national_de_Kirstenbosch.xlsx
+++ b/biology/Botanique/Jardin_botanique_national_de_Kirstenbosch/Jardin_botanique_national_de_Kirstenbosch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Kirstenbosch est situé dans la partie la plus aisée de la banlieue de la ville du Cap en Afrique du Sud. Ce jardin botanique est l'un des plus renommés au monde grâce à ses collections et sa situation exceptionnelle.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin est situé sur le flanc oriental de la montagne de la Table (Table Mountain).
 Le jardin, fondé en 1913, occupe actuellement une superficie de 528 hectares : 
@@ -549,7 +563,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'origine du nom Kirstenbosch est incertaine ; un certain nombre de familles portant le nom de Kirsten ont vécu à proximité et il est possible que le nom du jardin en soit issu, Kirstenbosch signifiant « la forêt de Kirsten ».
 L'implantation de travailleurs et de leurs familles dès 1811 entraîne la création de deux grandes concessions de terre. Le Colonel Bird construit une maison au pied de la Window Gorge (gorge de la Fenêtre) et plante des châtaigniers, Henry Alexandre construit une maison sur l'emplacement du vieux salon de thé. La famille d'Ecksteen acquiert des propriétés en 1823 et, plus tard, les terres sont transmises à la famille de Cloete. Ils cultivent le secteur et plantent des chênes, des arbres fruitiers et des vignes. En 1895, Cecil Rhodes achète la propriété de la famille Cloete et nomme un gardien. Ces terres sont utilisées pour l'élevage de porcs, qui se nourrissent de glands. L'avenue de Rhodes, également connue sous le nom d'Allée des Camphriers, est plantée en 1898. Rhodes meurt en 1902 en léguant Kirstenbosch à l'État en tant qu'élément de son grand domaine de Groote Schuur.
@@ -590,7 +606,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de Kirstenbosch compte presque uniquement des plantes d’Afrique australe. Il se divise en deux principales zones : la zone cultivée qui comprend les différentes collections de plantes, et la zone naturelle, qui s’étale en partie sur les flancs de la montagne de la Table et se compose de forêts, vestige des anciennes forêts du Cap. 
 La partie cultivée regroupe quelque 8 500 espèces de plantes qui ont pu s’adapter au climat local et à la nature du sol; la zone naturelle compte environ 900 espèces. La flore de la région du Cap est représentée en priorité. Elle est exceptionnellement riche. Occupant 4 % de la superficie de l’État, elle compte 8 500 espèces, soit 42,5 % du total des espèces du pays. On trouve aussi dans le jardin divers vieux arbres d’origine européenne ou exotique (chênes, camphriers, etc.) plantés par les anciens propriétaires de la zone. Le sol du parc a été formé par la décomposition des éboulements de roches granitiques ou de grès schisteux provenant de la montagne de la Table. Il est assez acide.
